--- a/PyTest_HW/TestCasesPyTest.xlsx
+++ b/PyTest_HW/TestCasesPyTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anastasiya_Viktarovi\Documents\GitHub\Data-Quality-Engineering-Mentoring-Program-Intermediate-Level-9\PyTest_HW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE16F22-A259-4DAA-A57A-A04E7F49E0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE7DB8-CA8B-40AB-A59E-AEAAE015C3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,6 @@
     <t>Verify the number of records with unique [AddressLine1] from  [Person].[Address] table from city Bothell</t>
   </si>
   <si>
-    <t>1.Execute the following  query: SELECT DISTINCT COUNT(([AddressLine1]))  AS count_addr FROM [Person].[Address] WHERE UPPER(City) =UPPER('Bothell');
-2.Check the result</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The query must return a single value with the total number of records with unique [AddressLine1] from  [Person].[Address] table from city Bothell . 
 </t>
@@ -187,6 +183,10 @@
   </si>
   <si>
     <t>Verify the minimum value of the [ModifiedDate] column in [Production].[UnitMeasure] table</t>
+  </si>
+  <si>
+    <t>1.Execute the following  query: SELECT DISTINCT COUNT([AddressLine1])  AS count_addr FROM [Person].[Address] WHERE UPPER(City) =UPPER('Bothell');
+2.Check the result</t>
   </si>
 </sst>
 </file>
@@ -520,9 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,10 +580,10 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -591,16 +591,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="58" x14ac:dyDescent="0.35">
@@ -608,16 +608,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -625,33 +625,33 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
